--- a/back-end/excelSheets/excelFormats/funded_projects.xlsx
+++ b/back-end/excelSheets/excelFormats/funded_projects.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>slNo</t>
   </si>
@@ -235,6 +235,63 @@
   </si>
   <si>
     <t>4 months</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>14/05/2013</t>
+  </si>
+  <si>
+    <t>17/07/2013</t>
+  </si>
+  <si>
+    <t>19/09/2013</t>
+  </si>
+  <si>
+    <t>22/11/2013</t>
+  </si>
+  <si>
+    <t>25/01/2014</t>
+  </si>
+  <si>
+    <t>30/03/2014</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>13/02/2015</t>
+  </si>
+  <si>
+    <t>18/04/2015</t>
+  </si>
+  <si>
+    <t>21/06/2015</t>
+  </si>
+  <si>
+    <t>24/08/2015</t>
+  </si>
+  <si>
+    <t>27/10/2015</t>
+  </si>
+  <si>
+    <t>30/12/2015</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
   </si>
 </sst>
 </file>
@@ -272,7 +329,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H20"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -581,7 +638,7 @@
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -605,7 +662,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -634,8 +691,8 @@
       <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="1">
-        <v>41344</v>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H2">
         <v>120000</v>
@@ -663,8 +720,8 @@
       <c r="F3" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="1">
-        <v>41408</v>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="H3">
         <v>150000</v>
@@ -692,8 +749,8 @@
       <c r="F4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="1">
-        <v>41472</v>
+      <c r="G4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H4">
         <v>200000</v>
@@ -721,8 +778,8 @@
       <c r="F5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="1">
-        <v>41536</v>
+      <c r="G5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="H5">
         <v>120000</v>
@@ -750,8 +807,8 @@
       <c r="F6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="1">
-        <v>41600</v>
+      <c r="G6" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="H6">
         <v>150000</v>
@@ -779,8 +836,8 @@
       <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="1">
-        <v>41664</v>
+      <c r="G7" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H7">
         <v>200000</v>
@@ -808,8 +865,8 @@
       <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="1">
-        <v>41728</v>
+      <c r="G8" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="H8">
         <v>180000</v>
@@ -837,8 +894,8 @@
       <c r="F9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="1">
-        <v>41792</v>
+      <c r="G9" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H9">
         <v>90000</v>
@@ -866,8 +923,8 @@
       <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="1">
-        <v>41856</v>
+      <c r="G10" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="H10">
         <v>25000</v>
@@ -895,8 +952,8 @@
       <c r="F11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="1">
-        <v>41920</v>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="H11">
         <v>120000</v>
@@ -924,8 +981,8 @@
       <c r="F12" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="1">
-        <v>41984</v>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H12">
         <v>150000</v>
@@ -953,8 +1010,8 @@
       <c r="F13" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="1">
-        <v>42048</v>
+      <c r="G13" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="H13">
         <v>200000</v>
@@ -982,8 +1039,8 @@
       <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="1">
-        <v>42112</v>
+      <c r="G14" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H14">
         <v>180000</v>
@@ -1011,8 +1068,8 @@
       <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="1">
-        <v>42176</v>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H15">
         <v>90000</v>
@@ -1040,8 +1097,8 @@
       <c r="F16" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="1">
-        <v>42240</v>
+      <c r="G16" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H16">
         <v>25000</v>
@@ -1069,8 +1126,8 @@
       <c r="F17" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="1">
-        <v>42304</v>
+      <c r="G17" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="H17">
         <v>250000</v>
@@ -1098,8 +1155,8 @@
       <c r="F18" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="1">
-        <v>42368</v>
+      <c r="G18" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H18">
         <v>300000</v>
@@ -1127,8 +1184,8 @@
       <c r="F19" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="1">
-        <v>42432</v>
+      <c r="G19" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="H19">
         <v>140000</v>
@@ -1156,8 +1213,8 @@
       <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="1">
-        <v>42496</v>
+      <c r="G20" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H20">
         <v>120000</v>
@@ -1165,15 +1222,6 @@
       <c r="I20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="G23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
